--- a/ConsolidationExample.xlsx
+++ b/ConsolidationExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conchraidh\Github\ExcelExamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE1412-1B76-4FA5-B292-0432F44AE3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3CFCA-2DF0-40EF-9034-AC6D5F2B9ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="675" xr2:uid="{4267A949-C77A-4228-AC96-A2BF0FF982EE}"/>
   </bookViews>
@@ -835,7 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBF04E1-1354-4471-B882-BDBF72FAFE44}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2952,15 +2954,15 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDE0273-388C-4480-8D94-CE173CFA4197}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="44103d13-c7cc-42fd-ae4f-5c37af5ca04b"/>
+    <ds:schemaRef ds:uri="17ac49ce-7cf5-4ba8-9788-cb5340ce45cd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="17ac49ce-7cf5-4ba8-9788-cb5340ce45cd"/>
-    <ds:schemaRef ds:uri="44103d13-c7cc-42fd-ae4f-5c37af5ca04b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
